--- a/隐私政策列表.xlsx
+++ b/隐私政策列表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wisher\pp_compliance\pp html\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wisher\pp_compliance\pp_annotate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8784" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8652" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="网上购物类" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="138">
   <si>
     <t>app</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -405,151 +405,162 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>链家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我爱我家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.haoduofangs.com/f100/download/private_policy.html</t>
+  </si>
+  <si>
+    <t>https://www.danke.com/zhuanti/user-privacy</t>
+  </si>
+  <si>
+    <t>https://www.ehomepay.com.cn/help/service_privacy.html</t>
+  </si>
+  <si>
+    <t>http://www.house365.com/user/365yszc.html</t>
+  </si>
+  <si>
+    <t>https://m.fangdd.com/artboardpage/a8d5daa6-790d-452c-8f33-7305f4900b6e</t>
+  </si>
+  <si>
+    <t>安居客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房天下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸福里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋壳公寓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理房通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>365淘房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房多多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd_wsm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/privacy_protection/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构和内容与今日头条类似。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://aweme.snssdk.com/falcon/douyin/agreements/?aid=6765345864320813070&amp;hide_nav_bar=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.meipai.com/agreement/privacy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.pearvideo.com/privacy_policy.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中有一个难以标记的句子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://h5.ribaoapi.com/bds_web_proto/user_privacy/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/term/privacy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://oasis.chengdu.weibo.cn/static/privacy.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/privacy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://h5.izuiyou.com/hybrid/agreement/private?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误百出，语句混乱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 1.1 1.1.1新格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.anjuke.com/policy/privacy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xq.2345.com/h5/app/index.html#/agreementPrivacy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://m.fang.com/my/?c=mycenter&amp;a=privacyPolicy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://m.lianjia.com/user/privacyprotocol</t>
-  </si>
-  <si>
-    <t>链家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://res.5i5j.com/zt/20190711/sm.html</t>
-  </si>
-  <si>
-    <t>我爱我家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.haoduofangs.com/f100/download/private_policy.html</t>
-  </si>
-  <si>
-    <t>https://www.danke.com/zhuanti/user-privacy</t>
-  </si>
-  <si>
-    <t>https://www.ehomepay.com.cn/help/service_privacy.html</t>
-  </si>
-  <si>
-    <t>http://www.house365.com/user/365yszc.html</t>
-  </si>
-  <si>
-    <t>https://m.fangdd.com/artboardpage/a8d5daa6-790d-452c-8f33-7305f4900b6e</t>
-  </si>
-  <si>
-    <t>安居客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房天下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸福里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛋壳公寓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>理房通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>365淘房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房多多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fd_wsm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.toutiao.com/privacy_protection/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结构和内容与今日头条类似。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://aweme.snssdk.com/falcon/douyin/agreements/?aid=6765345864320813070&amp;hide_nav_bar=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.meipai.com/agreement/privacy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.pearvideo.com/privacy_policy.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其中有一个难以标记的句子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://h5.ribaoapi.com/bds_web_proto/user_privacy/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.zhihu.com/term/privacy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://oasis.chengdu.weibo.cn/static/privacy.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/privacy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://h5.izuiyou.com/hybrid/agreement/private?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误百出，语句混乱。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 1.1 1.1.1新格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.anjuke.com/policy/privacy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xq.2345.com/h5/app/index.html#/agreementPrivacy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式非常非常特殊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1115,10 +1126,10 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15">
@@ -1132,10 +1143,10 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15">
@@ -1149,10 +1160,10 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.8">
@@ -1166,10 +1177,10 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
@@ -1183,10 +1194,10 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1252,7 +1263,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
         <v>48</v>
@@ -1346,10 +1357,10 @@
         <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15">
@@ -1363,10 +1374,10 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15">
@@ -1380,10 +1391,10 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15">
@@ -1397,10 +1408,10 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8">
@@ -1414,10 +1425,10 @@
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1486,13 +1497,13 @@
         <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8">
@@ -1506,10 +1517,10 @@
         <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.8">
@@ -1520,13 +1531,13 @@
         <v>70</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6">
@@ -1537,13 +1548,13 @@
         <v>67</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.6">
@@ -1554,16 +1565,16 @@
         <v>72</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" t="s">
         <v>121</v>
-      </c>
-      <c r="E6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.6">
@@ -1684,13 +1695,13 @@
         <v>79</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6">
@@ -1701,13 +1712,13 @@
         <v>82</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F3" t="s">
         <v>80</v>
@@ -1721,13 +1732,13 @@
         <v>81</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6">
@@ -1738,16 +1749,16 @@
         <v>83</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" t="s">
         <v>128</v>
-      </c>
-      <c r="D5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.6">
@@ -1758,16 +1769,16 @@
         <v>84</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.6">
@@ -1848,7 +1859,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1884,13 +1895,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="D2" t="s">
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15">
@@ -1900,11 +1914,17 @@
       <c r="B3" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="F3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15">
@@ -1912,13 +1932,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>97</v>
+        <v>134</v>
+      </c>
+      <c r="D4" t="s">
+        <v>133</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15">
@@ -1926,13 +1949,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>98</v>
+        <v>135</v>
+      </c>
+      <c r="D5" t="s">
+        <v>133</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15">
@@ -1940,13 +1966,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>100</v>
+        <v>136</v>
+      </c>
+      <c r="D6" t="s">
+        <v>133</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15">
@@ -1954,10 +1983,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15">
@@ -1965,10 +1994,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15">
@@ -1976,10 +2005,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15">
@@ -1987,10 +2016,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8">
@@ -1998,10 +2027,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2019,6 +2048,7 @@
     <hyperlink ref="C11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/隐私政策列表.xlsx
+++ b/隐私政策列表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8652" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8652" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="网上购物类" sheetId="1" r:id="rId1"/>
@@ -665,9 +665,6 @@
     <t>2019年6月14日</t>
   </si>
   <si>
-    <t>2019年5月7日</t>
-  </si>
-  <si>
     <t>2019年11月27日</t>
   </si>
   <si>
@@ -766,6 +763,9 @@
   </si>
   <si>
     <t>bd</t>
+  </si>
+  <si>
+    <t>2019年12月26日</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1274,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1316,7 +1316,7 @@
         <v>125</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -1336,7 +1336,7 @@
         <v>43</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E3" t="s">
         <v>37</v>
@@ -1356,7 +1356,7 @@
         <v>41</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E4" t="s">
         <v>37</v>
@@ -1376,7 +1376,7 @@
         <v>40</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E5" t="s">
         <v>39</v>
@@ -1416,7 +1416,7 @@
         <v>126</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E7" t="s">
         <v>113</v>
@@ -1456,7 +1456,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E9" t="s">
         <v>111</v>
@@ -1966,7 +1966,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.6">
@@ -1986,7 +1986,7 @@
         <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.6">
@@ -2006,7 +2006,7 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.6">
@@ -2026,7 +2026,7 @@
         <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2053,13 +2053,13 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="60.77734375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="60.77734375" customWidth="1"/>
     <col min="4" max="4" width="19.21875" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" customWidth="1"/>
@@ -2089,7 +2089,7 @@
         <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.6">
@@ -2112,7 +2112,7 @@
         <v>98</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6">
@@ -2138,7 +2138,7 @@
         <v>65</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.6">
@@ -2149,7 +2149,7 @@
         <v>66</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>162</v>
@@ -2161,10 +2161,10 @@
         <v>98</v>
       </c>
       <c r="G4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.6">
@@ -2230,7 +2230,7 @@
         <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.6">
@@ -2250,7 +2250,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.6">
@@ -2278,7 +2278,7 @@
         <v>76</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.6">
@@ -2355,7 +2355,7 @@
         <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15">
@@ -2369,7 +2369,7 @@
         <v>110</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
         <v>114</v>
@@ -2378,7 +2378,7 @@
         <v>98</v>
       </c>
       <c r="H2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15">
@@ -2392,7 +2392,7 @@
         <v>80</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E3" t="s">
         <v>114</v>
@@ -2404,7 +2404,7 @@
         <v>116</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15">
@@ -2418,7 +2418,7 @@
         <v>115</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E4" t="s">
         <v>114</v>
@@ -2427,7 +2427,7 @@
         <v>98</v>
       </c>
       <c r="H4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15">
@@ -2441,7 +2441,7 @@
         <v>120</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E5" t="s">
         <v>114</v>
@@ -2450,7 +2450,7 @@
         <v>98</v>
       </c>
       <c r="H5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15">
@@ -2461,10 +2461,10 @@
         <v>83</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>172</v>
       </c>
       <c r="E6" t="s">
         <v>114</v>
@@ -2473,7 +2473,7 @@
         <v>98</v>
       </c>
       <c r="H6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15">
@@ -2487,10 +2487,10 @@
         <v>84</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15">
@@ -2504,10 +2504,10 @@
         <v>85</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15">
@@ -2521,10 +2521,10 @@
         <v>86</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15">
@@ -2538,10 +2538,10 @@
         <v>87</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.8">
@@ -2555,10 +2555,10 @@
         <v>88</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2631,7 +2631,7 @@
         <v>28</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.6">
@@ -2645,7 +2645,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.6">
@@ -2659,7 +2659,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.6">
@@ -2673,7 +2673,7 @@
         <v>34</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.6">

--- a/隐私政策列表.xlsx
+++ b/隐私政策列表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8652" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8652" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="网上购物类" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="199">
   <si>
     <t>app</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1279,10 +1279,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="60.77734375" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.7890625" customWidth="1"/>
+    <col min="3" max="3" width="60.7890625" customWidth="1"/>
+    <col min="4" max="4" width="19.20703125" customWidth="1"/>
+    <col min="5" max="5" width="12.68359375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.2">
@@ -1325,7 +1325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15">
+    <row r="4" spans="1:6">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15">
+    <row r="5" spans="1:6">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15">
+    <row r="6" spans="1:6">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:6">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15">
+    <row r="9" spans="1:6">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15">
+    <row r="11" spans="1:6">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1528,17 +1528,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="60.77734375" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="44.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.7890625" customWidth="1"/>
+    <col min="3" max="3" width="60.7890625" customWidth="1"/>
+    <col min="4" max="4" width="19.20703125" customWidth="1"/>
+    <col min="5" max="5" width="12.68359375" customWidth="1"/>
+    <col min="7" max="7" width="44.5234375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.2">
@@ -1564,7 +1564,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:7">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8">
+    <row r="5" spans="1:7">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15">
+    <row r="6" spans="1:7">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1686,11 +1686,14 @@
       <c r="D7" s="17" t="s">
         <v>157</v>
       </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
       <c r="F7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1710,7 +1713,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15">
+    <row r="9" spans="1:7">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1730,7 +1733,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15">
+    <row r="10" spans="1:7">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1750,7 +1753,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15">
+    <row r="11" spans="1:7">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1799,11 +1802,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="60.77734375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="44.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.7890625" customWidth="1"/>
+    <col min="3" max="3" width="60.7890625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="19.20703125" customWidth="1"/>
+    <col min="5" max="5" width="12.68359375" customWidth="1"/>
+    <col min="7" max="7" width="44.5234375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.2">
@@ -1829,7 +1832,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6">
+    <row r="2" spans="1:7" ht="15.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1852,7 +1855,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6">
+    <row r="3" spans="1:7" ht="15.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1892,7 +1895,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6">
+    <row r="5" spans="1:7" ht="15.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1912,7 +1915,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6">
+    <row r="6" spans="1:7" ht="15.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1935,7 +1938,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6">
+    <row r="7" spans="1:7" ht="15.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1949,7 +1952,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6">
+    <row r="8" spans="1:7" ht="15.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1969,7 +1972,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.6">
+    <row r="9" spans="1:7" ht="15.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1989,7 +1992,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.6">
+    <row r="10" spans="1:7" ht="15.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2009,7 +2012,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.6">
+    <row r="11" spans="1:7" ht="15.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2052,18 +2055,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="60.77734375" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
-    <col min="7" max="7" width="44.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.7890625" customWidth="1"/>
+    <col min="3" max="3" width="60.7890625" customWidth="1"/>
+    <col min="4" max="4" width="19.20703125" customWidth="1"/>
+    <col min="5" max="5" width="12.68359375" customWidth="1"/>
+    <col min="6" max="6" width="8.89453125" customWidth="1"/>
+    <col min="7" max="7" width="44.5234375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.2">
@@ -2092,7 +2095,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6">
+    <row r="2" spans="1:8" ht="15.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2115,7 +2118,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6">
+    <row r="3" spans="1:8" ht="15.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2141,7 +2144,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.6">
+    <row r="4" spans="1:8" ht="15.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2167,7 +2170,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.6">
+    <row r="5" spans="1:8" ht="15.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2190,7 +2193,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.6">
+    <row r="6" spans="1:8" ht="15.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2213,7 +2216,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.6">
+    <row r="7" spans="1:8" ht="15.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2233,7 +2236,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.6">
+    <row r="8" spans="1:8" ht="15.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2253,7 +2256,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.6">
+    <row r="9" spans="1:8" ht="15.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2267,7 +2270,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.6">
+    <row r="10" spans="1:8" ht="15.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2281,7 +2284,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.6">
+    <row r="11" spans="1:8" ht="15.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2319,17 +2322,17 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="60.77734375" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="44.5546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7890625" customWidth="1"/>
+    <col min="3" max="3" width="60.7890625" customWidth="1"/>
+    <col min="4" max="4" width="19.20703125" customWidth="1"/>
+    <col min="5" max="5" width="12.68359375" customWidth="1"/>
+    <col min="6" max="6" width="8.83984375" customWidth="1"/>
+    <col min="7" max="7" width="44.5234375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.2">
@@ -2358,7 +2361,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2381,7 +2384,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2407,7 +2410,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2430,7 +2433,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2453,7 +2456,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2476,7 +2479,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2493,7 +2496,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2510,7 +2513,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2527,7 +2530,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2590,11 +2593,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="60.77734375" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="44.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.7890625" customWidth="1"/>
+    <col min="3" max="3" width="60.7890625" customWidth="1"/>
+    <col min="4" max="4" width="19.20703125" customWidth="1"/>
+    <col min="5" max="5" width="12.68359375" customWidth="1"/>
+    <col min="7" max="7" width="44.5234375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.2">
@@ -2620,7 +2623,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6">
+    <row r="2" spans="1:7" ht="15.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2634,7 +2637,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6">
+    <row r="3" spans="1:7" ht="15.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2648,7 +2651,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.6">
+    <row r="4" spans="1:7" ht="15.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2662,7 +2665,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6">
+    <row r="5" spans="1:7" ht="15.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2676,32 +2679,32 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6">
+    <row r="6" spans="1:7" ht="15.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6">
+    <row r="7" spans="1:7" ht="15.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6">
+    <row r="8" spans="1:7" ht="15.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.6">
+    <row r="9" spans="1:7" ht="15.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.6">
+    <row r="10" spans="1:7" ht="15.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.6">
+    <row r="11" spans="1:7" ht="15.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
